--- a/IronBBQ_v08.xlsx
+++ b/IronBBQ_v08.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciro.theodoro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\ironBBQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,9 +15,8 @@
     <sheet name="Pessoas" sheetId="1" r:id="rId1"/>
     <sheet name="Valores" sheetId="3" r:id="rId2"/>
     <sheet name="QuantidadeEValores" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="114">
   <si>
     <t>Charles</t>
   </si>
@@ -369,9 +368,6 @@
   </si>
   <si>
     <t>Picolés</t>
-  </si>
-  <si>
-    <t>Divisao por familia</t>
   </si>
 </sst>
 </file>
@@ -379,7 +375,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -746,12 +742,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -763,35 +759,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -837,7 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -849,10 +845,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1182,7 +1178,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2714,24 +2710,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/IronBBQ_v08.xlsx
+++ b/IronBBQ_v08.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pessoas" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Path, Charles</author>
+  </authors>
+  <commentList>
+    <comment ref="L17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Path, Charles:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fabio?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Path, Charles:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fabio tem uma loja perto da casa, consegue pegar?
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="116">
   <si>
     <t>Charles</t>
   </si>
@@ -368,6 +427,12 @@
   </si>
   <si>
     <t>Picolés</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>173,57</t>
   </si>
 </sst>
 </file>
@@ -377,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,8 +465,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,6 +510,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -744,7 +846,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -860,6 +962,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1175,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1305,7 @@
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -1213,7 +1328,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1233,10 +1348,10 @@
       </c>
       <c r="G2" s="49">
         <f>(C2+E2)*QuantidadeEValores!$C$37</f>
-        <v>57.857916666666675</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>63.117727272727279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1259,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1279,10 +1394,10 @@
       </c>
       <c r="G4" s="49">
         <f>(C4+E4)*QuantidadeEValores!$C$37</f>
-        <v>115.71583333333335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>126.23545454545456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1304,10 +1419,10 @@
       </c>
       <c r="G5" s="49">
         <f>(C5+E5)*QuantidadeEValores!$C$37</f>
-        <v>231.4316666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>252.47090909090912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1329,18 +1444,18 @@
       </c>
       <c r="G6" s="49">
         <f>(C6+E6)*QuantidadeEValores!$C$37</f>
-        <v>173.57375000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>189.35318181818184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
@@ -1352,10 +1467,10 @@
       </c>
       <c r="G7" s="49">
         <f>(C7+E7)*QuantidadeEValores!$C$37</f>
-        <v>115.71583333333335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1377,10 +1492,10 @@
       </c>
       <c r="G8" s="49">
         <f>(C8+E8)*QuantidadeEValores!$C$37</f>
-        <v>173.57375000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>189.35318181818184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1402,10 +1517,16 @@
       </c>
       <c r="G9" s="49">
         <f>(C9+E9)*QuantidadeEValores!$C$37</f>
-        <v>173.57375000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>189.35318181818184</v>
+      </c>
+      <c r="H9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1425,10 +1546,16 @@
       </c>
       <c r="G10" s="49">
         <f>(C10+E10)*QuantidadeEValores!$C$37</f>
-        <v>115.71583333333335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>126.23545454545456</v>
+      </c>
+      <c r="H10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1448,10 +1575,10 @@
       </c>
       <c r="G11" s="49">
         <f>(C11+E11)*QuantidadeEValores!$C$37</f>
-        <v>115.71583333333335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>126.23545454545456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1473,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1493,10 +1620,10 @@
       </c>
       <c r="G13" s="49">
         <f>(C13+E13)*QuantidadeEValores!$C$37</f>
-        <v>115.71583333333335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>126.23545454545456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1513,17 +1640,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="1">
         <f>SUM(B2:B14)</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
@@ -1540,7 +1667,7 @@
       </c>
       <c r="B17" s="1">
         <f>C15+E15</f>
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1563,7 +1690,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
@@ -2042,11 +2171,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2055,7 +2184,7 @@
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" customWidth="1"/>
     <col min="12" max="12" width="20.140625" customWidth="1"/>
     <col min="13" max="14" width="14.140625" customWidth="1"/>
@@ -2077,14 +2206,14 @@
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="53">
         <f>Pessoas!B17</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="30">
         <v>400</v>
       </c>
       <c r="D3" s="31">
         <f>B3*C3/1000</f>
-        <v>9.6</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -2142,7 +2271,7 @@
       </c>
       <c r="C11" s="44">
         <f>D3-D9</f>
-        <v>5.0999999999999996</v>
+        <v>4.3000000000000007</v>
       </c>
       <c r="F11" s="27"/>
     </row>
@@ -2209,316 +2338,316 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="63">
         <v>5</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="64">
         <f>C16*Valores!J5</f>
         <v>119.9</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="28">
-        <v>2</v>
-      </c>
-      <c r="I16" s="28" t="s">
+      <c r="H16" s="66">
+        <v>2</v>
+      </c>
+      <c r="I16" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="67">
         <f>H16*Valores!B15</f>
         <v>5</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="M16" s="28">
-        <v>2</v>
-      </c>
-      <c r="N16" s="51" t="s">
+      <c r="M16" s="66">
+        <v>2</v>
+      </c>
+      <c r="N16" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="O16" s="29" t="s">
+      <c r="O16" s="67" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="63">
         <f>G9</f>
         <v>2.25</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="64">
         <f>C17*Valores!I10</f>
         <v>74.25</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="66">
         <v>500</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="67">
         <f>H17/1000*Valores!B16</f>
         <v>1.25</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="70">
         <v>1</v>
       </c>
-      <c r="N17" s="51" t="s">
+      <c r="N17" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="O17" s="29">
+      <c r="O17" s="71">
         <f>M17*Valores!B29</f>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="63">
         <v>3</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="64">
         <f>C18*Valores!I4</f>
         <v>119.69999999999999</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="63">
         <v>1</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="I18" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="64">
         <f>H18*Valores!B17</f>
         <v>25</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="70">
         <v>1</v>
       </c>
-      <c r="N18" s="51" t="s">
+      <c r="N18" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="O18" s="29">
+      <c r="O18" s="71">
         <f>M18*Valores!B30</f>
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="63">
         <v>1</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="64">
         <f>C19*Valores!I7</f>
         <v>14.99</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="66">
         <v>4</v>
       </c>
-      <c r="I19" s="28" t="s">
+      <c r="I19" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="67">
         <f>H19*Valores!B18</f>
         <v>20</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="M19" s="28">
-        <v>2</v>
-      </c>
-      <c r="N19" s="51" t="s">
+      <c r="M19" s="70">
+        <v>2</v>
+      </c>
+      <c r="N19" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="O19" s="29">
+      <c r="O19" s="71">
         <f>M19*Valores!B31</f>
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="28">
-        <v>2</v>
-      </c>
-      <c r="D20" s="28" t="s">
+      <c r="C20" s="63">
+        <v>2</v>
+      </c>
+      <c r="D20" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="64">
         <f>C20*Valores!I13</f>
         <v>11.96</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="66">
         <v>5</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="I20" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="J20" s="29">
+      <c r="J20" s="67">
         <f>H20*Valores!B19</f>
         <v>34.5</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="M20" s="28">
+      <c r="M20" s="70">
         <v>5</v>
       </c>
-      <c r="N20" s="51" t="s">
+      <c r="N20" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="O20" s="29">
+      <c r="O20" s="71">
         <f>M20*Valores!B32</f>
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="28">
-        <v>2</v>
-      </c>
-      <c r="D21" s="28" t="s">
+      <c r="C21" s="63">
+        <v>2</v>
+      </c>
+      <c r="D21" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="64">
         <f>C21*Valores!I3</f>
         <v>49.8</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="66">
         <v>1</v>
       </c>
-      <c r="I21" s="28" t="s">
+      <c r="I21" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="67">
         <f>H21*Valores!B20</f>
         <v>10</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="28">
-        <v>2</v>
-      </c>
-      <c r="N21" s="51" t="s">
+      <c r="M21" s="66">
+        <v>2</v>
+      </c>
+      <c r="N21" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="O21" s="29">
+      <c r="O21" s="67">
         <f>M21*Valores!B27</f>
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="28">
-        <v>2</v>
-      </c>
-      <c r="D22" s="28" t="s">
+      <c r="C22" s="63">
+        <v>2</v>
+      </c>
+      <c r="D22" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="64">
         <f>C22*Valores!I12</f>
         <v>31.8</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="28">
-        <v>2</v>
-      </c>
-      <c r="I22" s="28" t="s">
+      <c r="H22" s="63">
+        <v>2</v>
+      </c>
+      <c r="I22" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="64">
         <f>H22*Valores!B21</f>
         <v>12</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="M22" s="28">
+      <c r="M22" s="63">
         <v>3</v>
       </c>
-      <c r="N22" s="51" t="s">
+      <c r="N22" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="O22" s="29">
+      <c r="O22" s="64">
         <f>M22*Valores!B28</f>
         <v>75</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="63">
         <v>4</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="64">
         <f>C23*Valores!I8</f>
         <v>35.6</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="66">
         <v>3</v>
       </c>
-      <c r="I23" s="28" t="s">
+      <c r="I23" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="67">
         <f>H23*Valores!B22</f>
         <v>15</v>
       </c>
@@ -2528,29 +2657,29 @@
       <c r="O23" s="29"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="63">
         <v>3</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="64">
         <f>C24*Valores!D9</f>
         <v>137.69999999999999</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="63">
         <v>1</v>
       </c>
-      <c r="I24" s="28" t="s">
+      <c r="I24" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="64">
         <f>H24*Valores!B23</f>
         <v>2.9</v>
       </c>
@@ -2564,16 +2693,16 @@
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="70">
         <v>72</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J25" s="71">
         <v>1</v>
       </c>
       <c r="L25" s="7"/>
@@ -2586,16 +2715,16 @@
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="29"/>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="63">
         <v>27</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="I26" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="J26" s="29">
+      <c r="J26" s="64">
         <f>H26*Valores!B24</f>
         <v>3.2399999999999998</v>
       </c>
@@ -2698,7 +2827,7 @@
       </c>
       <c r="C37" s="49">
         <f>C36/Pessoas!B17</f>
-        <v>57.857916666666675</v>
+        <v>63.117727272727279</v>
       </c>
     </row>
   </sheetData>
@@ -2709,5 +2838,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/IronBBQ_v08.xlsx
+++ b/IronBBQ_v08.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5850" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5850"/>
   </bookViews>
   <sheets>
     <sheet name="Pessoas" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="117">
   <si>
     <t>Charles</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>173,57</t>
+  </si>
+  <si>
+    <t>Ok</t>
   </si>
 </sst>
 </file>
@@ -941,6 +944,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -962,19 +978,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1292,13 +1295,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
@@ -1621,6 +1624,12 @@
       <c r="G13" s="49">
         <f>(C13+E13)*QuantidadeEValores!$C$37</f>
         <v>126.23545454545456</v>
+      </c>
+      <c r="H13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13">
+        <v>115.72</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1701,18 +1710,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="54"/>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="67"/>
+      <c r="B1" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="57"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="70"/>
       <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
@@ -1721,7 +1730,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
+      <c r="A2" s="68"/>
       <c r="B2" s="12" t="s">
         <v>22</v>
       </c>
@@ -2174,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2280,24 +2289,24 @@
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="G14" s="58" t="s">
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="G14" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
-      <c r="L14" s="58" t="s">
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="73"/>
+      <c r="L14" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="60"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="73"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="45" t="s">
@@ -2338,316 +2347,316 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="63">
+      <c r="C16" s="56">
         <v>5</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="64">
+      <c r="E16" s="57">
         <f>C16*Valores!J5</f>
         <v>119.9</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="66">
-        <v>2</v>
-      </c>
-      <c r="I16" s="66" t="s">
+      <c r="H16" s="59">
+        <v>2</v>
+      </c>
+      <c r="I16" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="67">
+      <c r="J16" s="60">
         <f>H16*Valores!B15</f>
         <v>5</v>
       </c>
-      <c r="L16" s="61" t="s">
+      <c r="L16" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="M16" s="66">
-        <v>2</v>
-      </c>
-      <c r="N16" s="68" t="s">
+      <c r="M16" s="59">
+        <v>2</v>
+      </c>
+      <c r="N16" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="O16" s="67" t="s">
+      <c r="O16" s="60" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="63">
+      <c r="C17" s="56">
         <f>G9</f>
         <v>2.25</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="57">
         <f>C17*Valores!I10</f>
         <v>74.25</v>
       </c>
-      <c r="G17" s="61" t="s">
+      <c r="G17" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="66">
+      <c r="H17" s="59">
         <v>500</v>
       </c>
-      <c r="I17" s="66" t="s">
+      <c r="I17" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="67">
+      <c r="J17" s="60">
         <f>H17/1000*Valores!B16</f>
         <v>1.25</v>
       </c>
-      <c r="L17" s="69" t="s">
+      <c r="L17" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="M17" s="70">
+      <c r="M17" s="63">
         <v>1</v>
       </c>
-      <c r="N17" s="73" t="s">
+      <c r="N17" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="O17" s="71">
+      <c r="O17" s="64">
         <f>M17*Valores!B29</f>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="63">
+      <c r="C18" s="56">
         <v>3</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="57">
         <f>C18*Valores!I4</f>
         <v>119.69999999999999</v>
       </c>
-      <c r="G18" s="62" t="s">
+      <c r="G18" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="63">
+      <c r="H18" s="56">
         <v>1</v>
       </c>
-      <c r="I18" s="63" t="s">
+      <c r="I18" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="64">
+      <c r="J18" s="57">
         <f>H18*Valores!B17</f>
         <v>25</v>
       </c>
-      <c r="L18" s="69" t="s">
+      <c r="L18" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="M18" s="70">
+      <c r="M18" s="63">
         <v>1</v>
       </c>
-      <c r="N18" s="73" t="s">
+      <c r="N18" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="O18" s="71">
+      <c r="O18" s="64">
         <f>M18*Valores!B30</f>
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="63">
+      <c r="C19" s="56">
         <v>1</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="57">
         <f>C19*Valores!I7</f>
         <v>14.99</v>
       </c>
-      <c r="G19" s="72" t="s">
+      <c r="G19" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="66">
+      <c r="H19" s="59">
         <v>4</v>
       </c>
-      <c r="I19" s="66" t="s">
+      <c r="I19" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="J19" s="67">
+      <c r="J19" s="60">
         <f>H19*Valores!B18</f>
         <v>20</v>
       </c>
-      <c r="L19" s="69" t="s">
+      <c r="L19" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="M19" s="70">
-        <v>2</v>
-      </c>
-      <c r="N19" s="73" t="s">
+      <c r="M19" s="63">
+        <v>2</v>
+      </c>
+      <c r="N19" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="O19" s="71">
+      <c r="O19" s="64">
         <f>M19*Valores!B31</f>
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="63">
-        <v>2</v>
-      </c>
-      <c r="D20" s="63" t="s">
+      <c r="C20" s="56">
+        <v>2</v>
+      </c>
+      <c r="D20" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="57">
         <f>C20*Valores!I13</f>
         <v>11.96</v>
       </c>
-      <c r="G20" s="72" t="s">
+      <c r="G20" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="H20" s="66">
+      <c r="H20" s="59">
         <v>5</v>
       </c>
-      <c r="I20" s="66" t="s">
+      <c r="I20" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="J20" s="67">
+      <c r="J20" s="60">
         <f>H20*Valores!B19</f>
         <v>34.5</v>
       </c>
-      <c r="L20" s="69" t="s">
+      <c r="L20" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="M20" s="70">
+      <c r="M20" s="63">
         <v>5</v>
       </c>
-      <c r="N20" s="73" t="s">
+      <c r="N20" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="O20" s="71">
+      <c r="O20" s="64">
         <f>M20*Valores!B32</f>
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="63">
-        <v>2</v>
-      </c>
-      <c r="D21" s="63" t="s">
+      <c r="C21" s="56">
+        <v>2</v>
+      </c>
+      <c r="D21" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="64">
+      <c r="E21" s="57">
         <f>C21*Valores!I3</f>
         <v>49.8</v>
       </c>
-      <c r="G21" s="72" t="s">
+      <c r="G21" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="H21" s="66">
+      <c r="H21" s="59">
         <v>1</v>
       </c>
-      <c r="I21" s="66" t="s">
+      <c r="I21" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="J21" s="67">
+      <c r="J21" s="60">
         <f>H21*Valores!B20</f>
         <v>10</v>
       </c>
-      <c r="L21" s="72" t="s">
+      <c r="L21" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="66">
-        <v>2</v>
-      </c>
-      <c r="N21" s="68" t="s">
+      <c r="M21" s="59">
+        <v>2</v>
+      </c>
+      <c r="N21" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="O21" s="67">
+      <c r="O21" s="60">
         <f>M21*Valores!B27</f>
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="63">
-        <v>2</v>
-      </c>
-      <c r="D22" s="63" t="s">
+      <c r="C22" s="56">
+        <v>2</v>
+      </c>
+      <c r="D22" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="57">
         <f>C22*Valores!I12</f>
         <v>31.8</v>
       </c>
-      <c r="G22" s="62" t="s">
+      <c r="G22" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="63">
-        <v>2</v>
-      </c>
-      <c r="I22" s="63" t="s">
+      <c r="H22" s="56">
+        <v>2</v>
+      </c>
+      <c r="I22" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J22" s="64">
+      <c r="J22" s="57">
         <f>H22*Valores!B21</f>
         <v>12</v>
       </c>
-      <c r="L22" s="62" t="s">
+      <c r="L22" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="M22" s="63">
+      <c r="M22" s="56">
         <v>3</v>
       </c>
-      <c r="N22" s="65" t="s">
+      <c r="N22" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="O22" s="64">
+      <c r="O22" s="57">
         <f>M22*Valores!B28</f>
         <v>75</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="63">
+      <c r="C23" s="56">
         <v>4</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="64">
+      <c r="E23" s="57">
         <f>C23*Valores!I8</f>
         <v>35.6</v>
       </c>
-      <c r="G23" s="61" t="s">
+      <c r="G23" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="66">
+      <c r="H23" s="59">
         <v>3</v>
       </c>
-      <c r="I23" s="66" t="s">
+      <c r="I23" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="67">
+      <c r="J23" s="60">
         <f>H23*Valores!B22</f>
         <v>15</v>
       </c>
@@ -2657,29 +2666,29 @@
       <c r="O23" s="29"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="63">
+      <c r="C24" s="56">
         <v>3</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="64">
+      <c r="E24" s="57">
         <f>C24*Valores!D9</f>
         <v>137.69999999999999</v>
       </c>
-      <c r="G24" s="62" t="s">
+      <c r="G24" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="63">
+      <c r="H24" s="56">
         <v>1</v>
       </c>
-      <c r="I24" s="63" t="s">
+      <c r="I24" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="J24" s="64">
+      <c r="J24" s="57">
         <f>H24*Valores!B23</f>
         <v>2.9</v>
       </c>
@@ -2693,16 +2702,16 @@
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
-      <c r="G25" s="69" t="s">
+      <c r="G25" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="70">
+      <c r="H25" s="63">
         <v>72</v>
       </c>
-      <c r="I25" s="70" t="s">
+      <c r="I25" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="J25" s="71">
+      <c r="J25" s="64">
         <v>1</v>
       </c>
       <c r="L25" s="7"/>
@@ -2715,16 +2724,16 @@
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="29"/>
-      <c r="G26" s="62" t="s">
+      <c r="G26" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="63">
+      <c r="H26" s="56">
         <v>27</v>
       </c>
-      <c r="I26" s="63" t="s">
+      <c r="I26" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="J26" s="64">
+      <c r="J26" s="57">
         <f>H26*Valores!B24</f>
         <v>3.2399999999999998</v>
       </c>

--- a/IronBBQ_v08.xlsx
+++ b/IronBBQ_v08.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="116">
   <si>
     <t>Charles</t>
   </si>
@@ -430,9 +430,6 @@
   </si>
   <si>
     <t>ok</t>
-  </si>
-  <si>
-    <t>173,57</t>
   </si>
   <si>
     <t>Ok</t>
@@ -488,7 +485,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,6 +528,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -849,11 +852,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -978,6 +980,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1296,7 +1303,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,59 +1313,66 @@
     <col min="5" max="5" width="30.28515625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="77">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="73">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="74">
         <f>B2-C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="49">
+      <c r="E2" s="74"/>
+      <c r="F2" s="73">
+        <v>0</v>
+      </c>
+      <c r="G2" s="75">
         <f>(C2+E2)*QuantidadeEValores!$C$37</f>
-        <v>63.117727272727279</v>
+        <v>69.429500000000004</v>
+      </c>
+      <c r="H2" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="76">
+        <v>57.86</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0</v>
       </c>
       <c r="C3">
@@ -1372,57 +1386,69 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="48">
         <f>(C3+E3)*QuantidadeEValores!$C$37</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="73">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="49">
+      <c r="E4" s="74"/>
+      <c r="F4" s="73">
+        <v>0</v>
+      </c>
+      <c r="G4" s="75">
         <f>(C4+E4)*QuantidadeEValores!$C$37</f>
-        <v>126.23545454545456</v>
+        <v>138.85900000000001</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="76">
+        <v>138.86000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="74">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="73">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="74">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="74">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="49">
+      <c r="F5" s="73">
+        <v>0</v>
+      </c>
+      <c r="G5" s="75">
         <f>(C5+E5)*QuantidadeEValores!$C$37</f>
-        <v>252.47090909090912</v>
+        <v>277.71800000000002</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="76">
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1430,14 +1456,14 @@
         <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1445,16 +1471,16 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="48">
         <f>(C6+E6)*QuantidadeEValores!$C$37</f>
-        <v>189.35318181818184</v>
+        <v>69.429500000000004</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0</v>
       </c>
       <c r="C7">
@@ -1468,7 +1494,7 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="48">
         <f>(C7+E7)*QuantidadeEValores!$C$37</f>
         <v>0</v>
       </c>
@@ -1493,68 +1519,68 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="48">
         <f>(C8+E8)*QuantidadeEValores!$C$37</f>
-        <v>189.35318181818184</v>
+        <v>208.2885</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="74">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="73">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="74">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="74">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="49">
+      <c r="F9" s="73">
+        <v>0</v>
+      </c>
+      <c r="G9" s="75">
         <f>(C9+E9)*QuantidadeEValores!$C$37</f>
-        <v>189.35318181818184</v>
-      </c>
-      <c r="H9" t="s">
+        <v>208.2885</v>
+      </c>
+      <c r="H9" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="I9" t="s">
-        <v>115</v>
+      <c r="I9" s="76">
+        <v>173.57</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="74">
         <v>2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="73">
         <v>2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10">
+      <c r="E10" s="74"/>
+      <c r="F10" s="73">
         <v>1</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="75">
         <f>(C10+E10)*QuantidadeEValores!$C$37</f>
-        <v>126.23545454545456</v>
-      </c>
-      <c r="H10" t="s">
+        <v>138.85900000000001</v>
+      </c>
+      <c r="H10" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="76">
         <v>120</v>
       </c>
     </row>
@@ -1576,16 +1602,16 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="48">
         <f>(C11+E11)*QuantidadeEValores!$C$37</f>
-        <v>126.23545454545456</v>
+        <v>138.85900000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>0</v>
       </c>
       <c r="C12">
@@ -1598,37 +1624,37 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="48">
         <f>(C12+E12)*QuantidadeEValores!$C$37</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="74">
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="73">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="49">
+      <c r="E13" s="74"/>
+      <c r="F13" s="73">
+        <v>0</v>
+      </c>
+      <c r="G13" s="75">
         <f>(C13+E13)*QuantidadeEValores!$C$37</f>
-        <v>126.23545454545456</v>
-      </c>
-      <c r="H13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13">
+        <v>138.85900000000001</v>
+      </c>
+      <c r="H13" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="76">
         <v>115.72</v>
       </c>
     </row>
@@ -1655,28 +1681,32 @@
       </c>
       <c r="B15" s="1">
         <f>SUM(B2:B14)</f>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <f>SUM(E2:E14)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="1">
         <f>C15+E15</f>
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I17" s="2">
+        <f>SUM(I2:I16)</f>
+        <v>1156.01</v>
       </c>
     </row>
   </sheetData>
@@ -1710,462 +1740,462 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="69" t="s">
+      <c r="A1" s="66"/>
+      <c r="B1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="10" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>30.6</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15">
         <v>27.9</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>24.9</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17">
         <v>24.9</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="18">
         <v>26.98</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>52.99</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>45</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>49.9</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>49.9</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="18">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="17">
         <v>39.9</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="18">
         <v>46.98</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>31.4</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>27.5</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15">
         <v>29.9</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>21.9</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18">
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17">
         <v>18.899999999999999</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <v>23.98</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>34.9</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19">
         <v>37.9</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="18">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="17">
         <v>28.9</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <v>32.979999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>14.55</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17">
         <v>14.99</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="21">
         <v>16.8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>9.89</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19">
         <v>11.9</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="20">
         <v>13.9</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <v>8.9</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="21">
         <v>10.98</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>47.36</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15">
         <v>45.9</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="22">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="21">
         <v>36.9</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="20">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="19">
         <v>33</v>
       </c>
-      <c r="J10" s="48"/>
+      <c r="J10" s="47"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="22"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>18.079999999999998</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20">
         <v>17.899999999999999</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <v>15.9</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="21">
         <v>16.98</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="22">
         <v>13.98</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22">
         <v>16.899999999999999</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24">
         <v>5.98</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="25">
         <v>12.8</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>2.5</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>2.5</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>25</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>5</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>6.9</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>10</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <v>6</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <v>5</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="15">
         <v>2.9</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="15">
         <v>0.12</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="15">
         <v>10</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="15">
         <v>25</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="15">
         <v>2</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="15">
         <v>2</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="15">
         <v>2</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="15">
         <v>2</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="15" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2184,7 +2214,7 @@
   <dimension ref="B1:O37"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="F14" sqref="F14:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,27 +2232,27 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53">
+      <c r="B3" s="52">
         <f>Pessoas!B17</f>
-        <v>22</v>
-      </c>
-      <c r="C3" s="30">
+        <v>20</v>
+      </c>
+      <c r="C3" s="29">
         <v>400</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="30">
         <f>B3*C3/1000</f>
-        <v>8.8000000000000007</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -2232,583 +2262,583 @@
     </row>
     <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37" t="s">
+      <c r="E8" s="36"/>
+      <c r="F8" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="32"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="39">
+      <c r="B9" s="38">
         <v>25</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="39">
         <v>180</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="39">
         <f>B9*C9/1000</f>
         <v>4.5</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41">
+      <c r="E9" s="39"/>
+      <c r="F9" s="40">
         <v>0.5</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="41">
         <f>D9*F9</f>
         <v>2.25</v>
       </c>
-      <c r="H9" s="32"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="27"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="43">
         <f>D3-D9</f>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="F11" s="27"/>
+        <v>3.5</v>
+      </c>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F12" s="27"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
-      <c r="G14" s="71" t="s">
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
+      <c r="G14" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="73"/>
-      <c r="L14" s="71" t="s">
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="72"/>
+      <c r="L14" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="73"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="72"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="J15" s="47" t="s">
+      <c r="J15" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="L15" s="45" t="s">
+      <c r="L15" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="46" t="s">
+      <c r="M15" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="N15" s="50" t="s">
+      <c r="N15" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="O15" s="47" t="s">
+      <c r="O15" s="46" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="55">
         <v>5</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="56">
         <f>C16*Valores!J5</f>
         <v>119.9</v>
       </c>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="59">
+      <c r="H16" s="58">
         <v>2</v>
       </c>
-      <c r="I16" s="59" t="s">
+      <c r="I16" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="60">
+      <c r="J16" s="59">
         <f>H16*Valores!B15</f>
         <v>5</v>
       </c>
-      <c r="L16" s="54" t="s">
+      <c r="L16" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="M16" s="59">
+      <c r="M16" s="58">
         <v>2</v>
       </c>
-      <c r="N16" s="61" t="s">
+      <c r="N16" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="O16" s="60" t="s">
+      <c r="O16" s="59" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="55">
         <f>G9</f>
         <v>2.25</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="56">
         <f>C17*Valores!I10</f>
         <v>74.25</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="59">
+      <c r="H17" s="58">
         <v>500</v>
       </c>
-      <c r="I17" s="59" t="s">
+      <c r="I17" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="60">
+      <c r="J17" s="59">
         <f>H17/1000*Valores!B16</f>
         <v>1.25</v>
       </c>
-      <c r="L17" s="62" t="s">
+      <c r="L17" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="M17" s="63">
+      <c r="M17" s="62">
         <v>1</v>
       </c>
-      <c r="N17" s="66" t="s">
+      <c r="N17" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="O17" s="64">
+      <c r="O17" s="63">
         <f>M17*Valores!B29</f>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="56">
+      <c r="C18" s="55">
         <v>3</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="56">
         <f>C18*Valores!I4</f>
         <v>119.69999999999999</v>
       </c>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="56">
+      <c r="H18" s="55">
         <v>1</v>
       </c>
-      <c r="I18" s="56" t="s">
+      <c r="I18" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="57">
+      <c r="J18" s="56">
         <f>H18*Valores!B17</f>
         <v>25</v>
       </c>
-      <c r="L18" s="62" t="s">
+      <c r="L18" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="M18" s="63">
+      <c r="M18" s="62">
         <v>1</v>
       </c>
-      <c r="N18" s="66" t="s">
+      <c r="N18" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="O18" s="64">
+      <c r="O18" s="63">
         <f>M18*Valores!B30</f>
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="56">
+      <c r="C19" s="55">
         <v>1</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="56">
         <f>C19*Valores!I7</f>
         <v>14.99</v>
       </c>
-      <c r="G19" s="65" t="s">
+      <c r="G19" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="59">
+      <c r="H19" s="58">
         <v>4</v>
       </c>
-      <c r="I19" s="59" t="s">
+      <c r="I19" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="J19" s="60">
+      <c r="J19" s="59">
         <f>H19*Valores!B18</f>
         <v>20</v>
       </c>
-      <c r="L19" s="62" t="s">
+      <c r="L19" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="M19" s="63">
+      <c r="M19" s="62">
         <v>2</v>
       </c>
-      <c r="N19" s="66" t="s">
+      <c r="N19" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="O19" s="64">
+      <c r="O19" s="63">
         <f>M19*Valores!B31</f>
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="56">
+      <c r="C20" s="55">
         <v>2</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="56">
         <f>C20*Valores!I13</f>
         <v>11.96</v>
       </c>
-      <c r="G20" s="65" t="s">
+      <c r="G20" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="H20" s="59">
+      <c r="H20" s="58">
         <v>5</v>
       </c>
-      <c r="I20" s="59" t="s">
+      <c r="I20" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="J20" s="60">
+      <c r="J20" s="59">
         <f>H20*Valores!B19</f>
         <v>34.5</v>
       </c>
-      <c r="L20" s="62" t="s">
+      <c r="L20" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="M20" s="63">
+      <c r="M20" s="62">
         <v>5</v>
       </c>
-      <c r="N20" s="66" t="s">
+      <c r="N20" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="O20" s="64">
+      <c r="O20" s="63">
         <f>M20*Valores!B32</f>
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="56">
+      <c r="C21" s="55">
         <v>2</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="56">
         <f>C21*Valores!I3</f>
         <v>49.8</v>
       </c>
-      <c r="G21" s="65" t="s">
+      <c r="G21" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="H21" s="59">
+      <c r="H21" s="58">
         <v>1</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="J21" s="60">
+      <c r="J21" s="59">
         <f>H21*Valores!B20</f>
         <v>10</v>
       </c>
-      <c r="L21" s="65" t="s">
+      <c r="L21" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="59">
+      <c r="M21" s="58">
         <v>2</v>
       </c>
-      <c r="N21" s="61" t="s">
+      <c r="N21" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="O21" s="60">
+      <c r="O21" s="59">
         <f>M21*Valores!B27</f>
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="56">
+      <c r="C22" s="55">
         <v>2</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="56">
         <f>C22*Valores!I12</f>
         <v>31.8</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="56">
+      <c r="H22" s="55">
         <v>2</v>
       </c>
-      <c r="I22" s="56" t="s">
+      <c r="I22" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="J22" s="57">
+      <c r="J22" s="56">
         <f>H22*Valores!B21</f>
         <v>12</v>
       </c>
-      <c r="L22" s="55" t="s">
+      <c r="L22" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="M22" s="56">
+      <c r="M22" s="55">
         <v>3</v>
       </c>
-      <c r="N22" s="58" t="s">
+      <c r="N22" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="O22" s="57">
+      <c r="O22" s="56">
         <f>M22*Valores!B28</f>
         <v>75</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="56">
+      <c r="C23" s="55">
         <v>4</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="56">
         <f>C23*Valores!I8</f>
         <v>35.6</v>
       </c>
-      <c r="G23" s="54" t="s">
+      <c r="G23" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="59">
+      <c r="H23" s="58">
         <v>3</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="60">
+      <c r="J23" s="59">
         <f>H23*Valores!B22</f>
         <v>15</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="29"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="28"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="56">
+      <c r="C24" s="55">
         <v>3</v>
       </c>
-      <c r="D24" s="56" t="s">
+      <c r="D24" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="56">
         <f>C24*Valores!D9</f>
         <v>137.69999999999999</v>
       </c>
-      <c r="G24" s="55" t="s">
+      <c r="G24" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="56">
+      <c r="H24" s="55">
         <v>1</v>
       </c>
-      <c r="I24" s="56" t="s">
+      <c r="I24" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="J24" s="57">
+      <c r="J24" s="56">
         <f>H24*Valores!B23</f>
         <v>2.9</v>
       </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="29"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="28"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="G25" s="62" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="G25" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="63">
+      <c r="H25" s="62">
         <v>72</v>
       </c>
-      <c r="I25" s="63" t="s">
+      <c r="I25" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="J25" s="64">
+      <c r="J25" s="63">
         <v>1</v>
       </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="29"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="28"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="G26" s="55" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="G26" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="56">
+      <c r="H26" s="55">
         <v>27</v>
       </c>
-      <c r="I26" s="56" t="s">
+      <c r="I26" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="J26" s="57">
+      <c r="J26" s="56">
         <f>H26*Valores!B24</f>
         <v>3.2399999999999998</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="29"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="28"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="29"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="29"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="28"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="28"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="29"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="29"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="28"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="28"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="29"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="29"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="28"/>
     </row>
     <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31">
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30">
         <f>SUM(E16:E29)</f>
         <v>595.70000000000005</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="31">
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="30">
         <f>SUM(J16:J29)</f>
         <v>129.89000000000001</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="31">
+      <c r="M30" s="29"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="30">
         <f>SUM(O16:O29)</f>
         <v>113</v>
       </c>
@@ -2825,7 +2855,7 @@
       <c r="B36" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="49">
+      <c r="C36" s="48">
         <f>C33+E30+J30+O30</f>
         <v>1388.5900000000001</v>
       </c>
@@ -2834,9 +2864,9 @@
       <c r="B37" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="49">
+      <c r="C37" s="48">
         <f>C36/Pessoas!B17</f>
-        <v>63.117727272727279</v>
+        <v>69.429500000000004</v>
       </c>
     </row>
   </sheetData>

--- a/IronBBQ_v08.xlsx
+++ b/IronBBQ_v08.xlsx
@@ -959,6 +959,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -980,11 +985,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1303,7 +1303,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,31 +1340,31 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="77">
+      <c r="B2" s="70">
         <v>1</v>
       </c>
-      <c r="C2" s="73">
+      <c r="C2" s="66">
         <v>1</v>
       </c>
-      <c r="D2" s="74">
+      <c r="D2" s="67">
         <f>B2-C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="73">
-        <v>0</v>
-      </c>
-      <c r="G2" s="75">
+      <c r="E2" s="67"/>
+      <c r="F2" s="66">
+        <v>0</v>
+      </c>
+      <c r="G2" s="68">
         <f>(C2+E2)*QuantidadeEValores!$C$37</f>
-        <v>69.429500000000004</v>
-      </c>
-      <c r="H2" s="73" t="s">
+        <v>73.083684210526329</v>
+      </c>
+      <c r="H2" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="76">
+      <c r="I2" s="69">
         <v>57.86</v>
       </c>
     </row>
@@ -1392,62 +1392,62 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74">
+      <c r="A4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67">
         <v>2</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="66">
         <v>2</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="73">
-        <v>0</v>
-      </c>
-      <c r="G4" s="75">
+      <c r="E4" s="67"/>
+      <c r="F4" s="66">
+        <v>0</v>
+      </c>
+      <c r="G4" s="68">
         <f>(C4+E4)*QuantidadeEValores!$C$37</f>
-        <v>138.85900000000001</v>
-      </c>
-      <c r="H4" s="73" t="s">
+        <v>146.16736842105266</v>
+      </c>
+      <c r="H4" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="76">
+      <c r="I4" s="69">
         <v>138.86000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="74">
+      <c r="B5" s="67">
         <v>5</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="66">
         <v>2</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="67">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E5" s="74">
+      <c r="E5" s="67">
         <v>2</v>
       </c>
-      <c r="F5" s="73">
-        <v>0</v>
-      </c>
-      <c r="G5" s="75">
+      <c r="F5" s="66">
+        <v>0</v>
+      </c>
+      <c r="G5" s="68">
         <f>(C5+E5)*QuantidadeEValores!$C$37</f>
-        <v>277.71800000000002</v>
-      </c>
-      <c r="H5" s="73" t="s">
+        <v>292.33473684210531</v>
+      </c>
+      <c r="H5" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="76">
+      <c r="I5" s="69">
         <v>550</v>
       </c>
     </row>
@@ -1465,15 +1465,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" s="48">
         <f>(C6+E6)*QuantidadeEValores!$C$37</f>
-        <v>69.429500000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1521,90 +1519,94 @@
       </c>
       <c r="G8" s="48">
         <f>(C8+E8)*QuantidadeEValores!$C$37</f>
-        <v>208.2885</v>
+        <v>219.251052631579</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="74">
+      <c r="B9" s="67">
         <v>4</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="66">
         <v>2</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="67">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="67">
         <v>1</v>
       </c>
-      <c r="F9" s="73">
-        <v>0</v>
-      </c>
-      <c r="G9" s="75">
+      <c r="F9" s="66">
+        <v>0</v>
+      </c>
+      <c r="G9" s="68">
         <f>(C9+E9)*QuantidadeEValores!$C$37</f>
-        <v>208.2885</v>
-      </c>
-      <c r="H9" s="73" t="s">
+        <v>219.251052631579</v>
+      </c>
+      <c r="H9" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="69">
         <v>173.57</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="74">
+      <c r="B10" s="67">
         <v>2</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="66">
         <v>2</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="73">
+      <c r="E10" s="67"/>
+      <c r="F10" s="66">
         <v>1</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="68">
         <f>(C10+E10)*QuantidadeEValores!$C$37</f>
-        <v>138.85900000000001</v>
-      </c>
-      <c r="H10" s="73" t="s">
+        <v>146.16736842105266</v>
+      </c>
+      <c r="H10" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="I10" s="76">
+      <c r="I10" s="69">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="67">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="66">
         <v>2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="48">
+      <c r="E11" s="67"/>
+      <c r="F11" s="66">
+        <v>0</v>
+      </c>
+      <c r="G11" s="68">
         <f>(C11+E11)*QuantidadeEValores!$C$37</f>
-        <v>138.85900000000001</v>
+        <v>146.16736842105266</v>
+      </c>
+      <c r="H11" s="66"/>
+      <c r="I11" s="69">
+        <v>115.72</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1630,31 +1632,31 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="74">
+      <c r="B13" s="67">
         <v>2</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="66">
         <v>2</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="73">
-        <v>0</v>
-      </c>
-      <c r="G13" s="75">
+      <c r="E13" s="67"/>
+      <c r="F13" s="66">
+        <v>0</v>
+      </c>
+      <c r="G13" s="68">
         <f>(C13+E13)*QuantidadeEValores!$C$37</f>
-        <v>138.85900000000001</v>
-      </c>
-      <c r="H13" s="73" t="s">
+        <v>146.16736842105266</v>
+      </c>
+      <c r="H13" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="69">
         <v>115.72</v>
       </c>
     </row>
@@ -1693,7 +1695,7 @@
       </c>
       <c r="E15">
         <f>SUM(E2:E14)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1702,11 +1704,11 @@
       </c>
       <c r="B17" s="1">
         <f>C15+E15</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I17" s="2">
         <f>SUM(I2:I16)</f>
-        <v>1156.01</v>
+        <v>1271.73</v>
       </c>
     </row>
   </sheetData>
@@ -1740,18 +1742,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="68" t="s">
+      <c r="A1" s="71"/>
+      <c r="B1" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68" t="s">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="69"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74"/>
       <c r="I1" s="9" t="s">
         <v>20</v>
       </c>
@@ -1760,7 +1762,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
+      <c r="A2" s="72"/>
       <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
@@ -2213,7 +2215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F14" sqref="F14:F30"/>
     </sheetView>
   </sheetViews>
@@ -2245,14 +2247,14 @@
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="52">
         <f>Pessoas!B17</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="29">
         <v>400</v>
       </c>
       <c r="D3" s="30">
         <f>B3*C3/1000</f>
-        <v>8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -2310,7 +2312,7 @@
       </c>
       <c r="C11" s="43">
         <f>D3-D9</f>
-        <v>3.5</v>
+        <v>3.0999999999999996</v>
       </c>
       <c r="F11" s="26"/>
     </row>
@@ -2319,24 +2321,24 @@
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
-      <c r="G14" s="70" t="s">
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77"/>
+      <c r="G14" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="72"/>
-      <c r="L14" s="70" t="s">
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
+      <c r="L14" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="72"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="77"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="44" t="s">
@@ -2866,7 +2868,7 @@
       </c>
       <c r="C37" s="48">
         <f>C36/Pessoas!B17</f>
-        <v>69.429500000000004</v>
+        <v>73.083684210526329</v>
       </c>
     </row>
   </sheetData>

--- a/IronBBQ_v08.xlsx
+++ b/IronBBQ_v08.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="116">
   <si>
     <t>Charles</t>
   </si>
@@ -1303,7 +1303,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,28 +1498,34 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="67">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="66">
         <v>2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="67">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="67">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="66">
         <v>1</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="68">
         <f>(C8+E8)*QuantidadeEValores!$C$37</f>
         <v>219.251052631579</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="69">
+        <v>173.58</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1708,7 +1714,7 @@
       </c>
       <c r="I17" s="2">
         <f>SUM(I2:I16)</f>
-        <v>1271.73</v>
+        <v>1445.3100000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2215,8 +2221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2738,7 +2744,7 @@
         <v>113</v>
       </c>
       <c r="H25" s="62">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I25" s="62" t="s">
         <v>107</v>

--- a/IronBBQ_v08.xlsx
+++ b/IronBBQ_v08.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pessoas" sheetId="1" r:id="rId1"/>
@@ -852,7 +852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -985,6 +985,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1302,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="C15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,7 +1360,7 @@
       </c>
       <c r="G2" s="68">
         <f>(C2+E2)*QuantidadeEValores!$C$37</f>
-        <v>73.083684210526329</v>
+        <v>68.611578947368429</v>
       </c>
       <c r="H2" s="66" t="s">
         <v>114</v>
@@ -1411,7 +1412,7 @@
       </c>
       <c r="G4" s="68">
         <f>(C4+E4)*QuantidadeEValores!$C$37</f>
-        <v>146.16736842105266</v>
+        <v>137.22315789473686</v>
       </c>
       <c r="H4" s="66" t="s">
         <v>114</v>
@@ -1442,7 +1443,7 @@
       </c>
       <c r="G5" s="68">
         <f>(C5+E5)*QuantidadeEValores!$C$37</f>
-        <v>292.33473684210531</v>
+        <v>274.44631578947372</v>
       </c>
       <c r="H5" s="66" t="s">
         <v>114</v>
@@ -1519,7 +1520,7 @@
       </c>
       <c r="G8" s="68">
         <f>(C8+E8)*QuantidadeEValores!$C$37</f>
-        <v>219.251052631579</v>
+        <v>205.83473684210529</v>
       </c>
       <c r="H8" s="66" t="s">
         <v>114</v>
@@ -1550,7 +1551,7 @@
       </c>
       <c r="G9" s="68">
         <f>(C9+E9)*QuantidadeEValores!$C$37</f>
-        <v>219.251052631579</v>
+        <v>205.83473684210529</v>
       </c>
       <c r="H9" s="66" t="s">
         <v>114</v>
@@ -1579,7 +1580,7 @@
       </c>
       <c r="G10" s="68">
         <f>(C10+E10)*QuantidadeEValores!$C$37</f>
-        <v>146.16736842105266</v>
+        <v>137.22315789473686</v>
       </c>
       <c r="H10" s="66" t="s">
         <v>114</v>
@@ -1608,7 +1609,7 @@
       </c>
       <c r="G11" s="68">
         <f>(C11+E11)*QuantidadeEValores!$C$37</f>
-        <v>146.16736842105266</v>
+        <v>137.22315789473686</v>
       </c>
       <c r="H11" s="66"/>
       <c r="I11" s="69">
@@ -1657,7 +1658,7 @@
       </c>
       <c r="G13" s="68">
         <f>(C13+E13)*QuantidadeEValores!$C$37</f>
-        <v>146.16736842105266</v>
+        <v>137.22315789473686</v>
       </c>
       <c r="H13" s="66" t="s">
         <v>115</v>
@@ -1730,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,7 +1955,9 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
+      <c r="I9" s="17">
+        <v>19</v>
+      </c>
       <c r="J9" s="21">
         <v>36.9</v>
       </c>
@@ -1971,7 +1974,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="20"/>
       <c r="I10" s="19">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J10" s="47"/>
     </row>
@@ -2221,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2429,15 +2432,14 @@
         <v>50</v>
       </c>
       <c r="C17" s="55">
-        <f>G9</f>
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>52</v>
       </c>
       <c r="E17" s="56">
         <f>C17*Valores!I10</f>
-        <v>74.25</v>
+        <v>57</v>
       </c>
       <c r="G17" s="53" t="s">
         <v>55</v>
@@ -2553,14 +2555,14 @@
         <v>64</v>
       </c>
       <c r="C20" s="55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="55" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="56">
         <f>C20*Valores!I13</f>
-        <v>11.96</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="G20" s="64" t="s">
         <v>81</v>
@@ -2635,14 +2637,14 @@
         <v>65</v>
       </c>
       <c r="C22" s="55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="55" t="s">
         <v>52</v>
       </c>
       <c r="E22" s="56">
         <f>C22*Valores!I12</f>
-        <v>31.8</v>
+        <v>47.7</v>
       </c>
       <c r="G22" s="54" t="s">
         <v>85</v>
@@ -2676,14 +2678,14 @@
         <v>34</v>
       </c>
       <c r="C23" s="55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="55" t="s">
         <v>68</v>
       </c>
       <c r="E23" s="56">
         <f>C23*Valores!I8</f>
-        <v>35.6</v>
+        <v>26.700000000000003</v>
       </c>
       <c r="G23" s="53" t="s">
         <v>79</v>
@@ -2713,9 +2715,9 @@
       <c r="D24" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="56">
-        <f>C24*Valores!D9</f>
-        <v>137.69999999999999</v>
+      <c r="E24" s="78">
+        <f>C24*Valores!I9</f>
+        <v>57</v>
       </c>
       <c r="G24" s="54" t="s">
         <v>77</v>
@@ -2830,7 +2832,7 @@
       <c r="D30" s="29"/>
       <c r="E30" s="30">
         <f>SUM(E16:E29)</f>
-        <v>595.70000000000005</v>
+        <v>510.73</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>73</v>
@@ -2865,7 +2867,7 @@
       </c>
       <c r="C36" s="48">
         <f>C33+E30+J30+O30</f>
-        <v>1388.5900000000001</v>
+        <v>1303.6200000000001</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -2874,7 +2876,7 @@
       </c>
       <c r="C37" s="48">
         <f>C36/Pessoas!B17</f>
-        <v>73.083684210526329</v>
+        <v>68.611578947368429</v>
       </c>
     </row>
   </sheetData>

--- a/IronBBQ_v08.xlsx
+++ b/IronBBQ_v08.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5850" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5850"/>
   </bookViews>
   <sheets>
     <sheet name="Pessoas" sheetId="1" r:id="rId1"/>
     <sheet name="Valores" sheetId="3" r:id="rId2"/>
     <sheet name="QuantidadeEValores" sheetId="4" r:id="rId3"/>
+    <sheet name="TotaisGastos" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="148">
   <si>
     <t>Charles</t>
   </si>
@@ -433,6 +434,102 @@
   </si>
   <si>
     <t>Ok</t>
+  </si>
+  <si>
+    <t>Chacara</t>
+  </si>
+  <si>
+    <t>Totais</t>
+  </si>
+  <si>
+    <t>Maionese (Cenoura)</t>
+  </si>
+  <si>
+    <t>Maionese (Vagem)</t>
+  </si>
+  <si>
+    <t>Maionese (Batata)</t>
+  </si>
+  <si>
+    <t>Suco (Limão)</t>
+  </si>
+  <si>
+    <t>Salada (Tomate)</t>
+  </si>
+  <si>
+    <t>Agua (2 galões de 5 litros)</t>
+  </si>
+  <si>
+    <t>Suco (Maracuja)</t>
+  </si>
+  <si>
+    <t>Queijo coalho (Carrefour - 3 pacotes)</t>
+  </si>
+  <si>
+    <t>Suco Pessego DelValle (Carrefour)</t>
+  </si>
+  <si>
+    <t>Suco Uva Sufresh (Carrefour)</t>
+  </si>
+  <si>
+    <t>Coca Cola 2L (Carrefour)</t>
+  </si>
+  <si>
+    <t>Guaraná 1,5 L (Carrefour)</t>
+  </si>
+  <si>
+    <t>Maionese (Maionese Hellmans - Carrefour)</t>
+  </si>
+  <si>
+    <t>Ketchup Heinz (Carrefour)</t>
+  </si>
+  <si>
+    <t>Maionese Heinz (Carrefour)</t>
+  </si>
+  <si>
+    <t>Ervilha (Carrefour)</t>
+  </si>
+  <si>
+    <t>Milho (Carrefour)</t>
+  </si>
+  <si>
+    <t>Açúcar (Carrefour)</t>
+  </si>
+  <si>
+    <t>Canela em pó (Carrefour)</t>
+  </si>
+  <si>
+    <t>Fabio</t>
+  </si>
+  <si>
+    <t>Copo 400ml</t>
+  </si>
+  <si>
+    <t>Copo 300ml</t>
+  </si>
+  <si>
+    <t>Faca</t>
+  </si>
+  <si>
+    <t>Garfo</t>
+  </si>
+  <si>
+    <t>Prato</t>
+  </si>
+  <si>
+    <t>Toalha de Papel</t>
+  </si>
+  <si>
+    <t>Picolé</t>
+  </si>
+  <si>
+    <t>Coxa e Sobrecoxa Frango</t>
+  </si>
+  <si>
+    <t>Pão de Alho</t>
+  </si>
+  <si>
+    <t>Pão de Hamburguer</t>
   </si>
 </sst>
 </file>
@@ -442,7 +539,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,8 +581,16 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,8 +639,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -847,12 +964,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -964,6 +1133,7 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -985,7 +1155,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1301,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="C15:E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,7 +1882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1716,6 +1893,10 @@
       <c r="I17" s="2">
         <f>SUM(I2:I16)</f>
         <v>1445.3100000000002</v>
+      </c>
+      <c r="J17" s="86">
+        <f>I17-TotaisGastos!D37</f>
+        <v>301.74</v>
       </c>
     </row>
   </sheetData>
@@ -1749,18 +1930,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="71"/>
-      <c r="B1" s="73" t="s">
+      <c r="A1" s="72"/>
+      <c r="B1" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
       <c r="I1" s="9" t="s">
         <v>20</v>
       </c>
@@ -1769,7 +1950,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
@@ -2224,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2330,24 +2511,24 @@
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
-      <c r="G14" s="75" t="s">
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
+      <c r="G14" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="77"/>
-      <c r="L14" s="75" t="s">
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="78"/>
+      <c r="L14" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="78"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="44" t="s">
@@ -2715,7 +2896,7 @@
       <c r="D24" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="78">
+      <c r="E24" s="71">
         <f>C24*Valores!I9</f>
         <v>57</v>
       </c>
@@ -2889,4 +3070,482 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="79">
+        <v>500</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="79">
+        <v>3</v>
+      </c>
+      <c r="D2" s="81"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="79">
+        <v>4</v>
+      </c>
+      <c r="D3" s="81"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="79">
+        <v>6.4</v>
+      </c>
+      <c r="D4" s="81"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="79">
+        <v>9</v>
+      </c>
+      <c r="D5" s="81"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="79">
+        <v>1.55</v>
+      </c>
+      <c r="D6" s="81"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="79">
+        <v>9</v>
+      </c>
+      <c r="D7" s="81"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="79">
+        <v>10</v>
+      </c>
+      <c r="D8" s="81"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="79">
+        <v>10</v>
+      </c>
+      <c r="D9" s="81"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="79">
+        <f>18.2+19.18+18.2</f>
+        <v>55.58</v>
+      </c>
+      <c r="D10" s="81"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="79">
+        <f>6.19</f>
+        <v>6.19</v>
+      </c>
+      <c r="D11" s="81"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="79">
+        <f>3.89+3.89</f>
+        <v>7.78</v>
+      </c>
+      <c r="D12" s="81"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="79">
+        <f>6.57</f>
+        <v>6.57</v>
+      </c>
+      <c r="D13" s="81"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="79">
+        <f>17.97-5.99</f>
+        <v>11.979999999999999</v>
+      </c>
+      <c r="D14" s="81"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="79">
+        <f>5.99+5.99</f>
+        <v>11.98</v>
+      </c>
+      <c r="D15" s="81"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="79">
+        <f>13.59</f>
+        <v>13.59</v>
+      </c>
+      <c r="D16" s="81"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="79">
+        <f>7.99+8.49</f>
+        <v>16.48</v>
+      </c>
+      <c r="D17" s="81"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="79">
+        <v>1.69</v>
+      </c>
+      <c r="D18" s="81"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="79">
+        <v>1.79</v>
+      </c>
+      <c r="D19" s="81"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="79">
+        <v>1.78</v>
+      </c>
+      <c r="D20" s="81"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="79">
+        <v>4.99</v>
+      </c>
+      <c r="D21" s="81">
+        <f>SUM(C1:C21)</f>
+        <v>693.35000000000014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="82">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="D22" s="81"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="82">
+        <v>6.24</v>
+      </c>
+      <c r="D23" s="81"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="82">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="D24" s="81"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="82">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="D25" s="81"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="82">
+        <v>13.3</v>
+      </c>
+      <c r="D26" s="81"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="82">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D27" s="81"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="82">
+        <v>75</v>
+      </c>
+      <c r="D28" s="81">
+        <f>SUM(C22:C28)</f>
+        <v>155.28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="84">
+        <v>17.3</v>
+      </c>
+      <c r="D29" s="81"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="84">
+        <v>53.22</v>
+      </c>
+      <c r="D30" s="81"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="84">
+        <v>28.83</v>
+      </c>
+      <c r="D31" s="81"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="84">
+        <v>99.15</v>
+      </c>
+      <c r="D32" s="81"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="84">
+        <v>15</v>
+      </c>
+      <c r="D33" s="81"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="84">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="D34" s="81"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="84">
+        <v>39.96</v>
+      </c>
+      <c r="D35" s="81"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="84">
+        <v>7.5</v>
+      </c>
+      <c r="D36" s="81">
+        <f>SUM(C29:C36)</f>
+        <v>294.94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D37" s="85">
+        <f>SUM(D1:D36)</f>
+        <v>1143.5700000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/IronBBQ_v08.xlsx
+++ b/IronBBQ_v08.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pessoas" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="149">
   <si>
     <t>Charles</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>Pão de Hamburguer</t>
+  </si>
+  <si>
+    <t>Queijo Mussarela</t>
   </si>
 </sst>
 </file>
@@ -652,7 +655,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1016,12 +1019,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1134,6 +1150,14 @@
     <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1155,14 +1179,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1480,7 +1497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1894,9 +1911,9 @@
         <f>SUM(I2:I16)</f>
         <v>1445.3100000000002</v>
       </c>
-      <c r="J17" s="86">
-        <f>I17-TotaisGastos!D37</f>
-        <v>301.74</v>
+      <c r="J17" s="79">
+        <f>I17-TotaisGastos!D39</f>
+        <v>220.12000000000012</v>
       </c>
     </row>
   </sheetData>
@@ -1930,18 +1947,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="72"/>
-      <c r="B1" s="74" t="s">
+      <c r="A1" s="80"/>
+      <c r="B1" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="9" t="s">
         <v>20</v>
       </c>
@@ -1950,7 +1967,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
+      <c r="A2" s="81"/>
       <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
@@ -2405,8 +2422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2511,24 +2528,24 @@
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
-      <c r="G14" s="76" t="s">
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
+      <c r="G14" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="78"/>
-      <c r="L14" s="76" t="s">
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="86"/>
+      <c r="L14" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="78"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="86"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="44" t="s">
@@ -3074,10 +3091,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3095,10 +3112,10 @@
       <c r="B1" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="79">
+      <c r="C1" s="72">
         <v>500</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="73" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3109,10 +3126,10 @@
       <c r="B2" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="79">
+      <c r="C2" s="72">
         <v>3</v>
       </c>
-      <c r="D2" s="81"/>
+      <c r="D2" s="74"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
@@ -3121,10 +3138,10 @@
       <c r="B3" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="72">
         <v>4</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="74"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
@@ -3133,10 +3150,10 @@
       <c r="B4" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="72">
         <v>6.4</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="74"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
@@ -3145,10 +3162,10 @@
       <c r="B5" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="72">
         <v>9</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="74"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
@@ -3157,10 +3174,10 @@
       <c r="B6" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C6" s="72">
         <v>1.55</v>
       </c>
-      <c r="D6" s="81"/>
+      <c r="D6" s="74"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
@@ -3169,10 +3186,10 @@
       <c r="B7" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="79">
+      <c r="C7" s="72">
         <v>9</v>
       </c>
-      <c r="D7" s="81"/>
+      <c r="D7" s="74"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
@@ -3181,10 +3198,10 @@
       <c r="B8" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="72">
         <v>10</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="74"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
@@ -3193,10 +3210,10 @@
       <c r="B9" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="72">
         <v>10</v>
       </c>
-      <c r="D9" s="81"/>
+      <c r="D9" s="74"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
@@ -3205,11 +3222,11 @@
       <c r="B10" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="79">
+      <c r="C10" s="72">
         <f>18.2+19.18+18.2</f>
         <v>55.58</v>
       </c>
-      <c r="D10" s="81"/>
+      <c r="D10" s="74"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
@@ -3218,11 +3235,11 @@
       <c r="B11" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="79">
+      <c r="C11" s="72">
         <f>6.19</f>
         <v>6.19</v>
       </c>
-      <c r="D11" s="81"/>
+      <c r="D11" s="74"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
@@ -3231,11 +3248,11 @@
       <c r="B12" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="79">
+      <c r="C12" s="72">
         <f>3.89+3.89</f>
         <v>7.78</v>
       </c>
-      <c r="D12" s="81"/>
+      <c r="D12" s="74"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
@@ -3244,11 +3261,11 @@
       <c r="B13" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="79">
+      <c r="C13" s="72">
         <f>6.57</f>
         <v>6.57</v>
       </c>
-      <c r="D13" s="81"/>
+      <c r="D13" s="74"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
@@ -3257,11 +3274,11 @@
       <c r="B14" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C14" s="72">
         <f>17.97-5.99</f>
         <v>11.979999999999999</v>
       </c>
-      <c r="D14" s="81"/>
+      <c r="D14" s="74"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
@@ -3270,11 +3287,11 @@
       <c r="B15" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="79">
+      <c r="C15" s="72">
         <f>5.99+5.99</f>
         <v>11.98</v>
       </c>
-      <c r="D15" s="81"/>
+      <c r="D15" s="74"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
@@ -3283,11 +3300,11 @@
       <c r="B16" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="79">
+      <c r="C16" s="72">
         <f>13.59</f>
         <v>13.59</v>
       </c>
-      <c r="D16" s="81"/>
+      <c r="D16" s="74"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
@@ -3296,11 +3313,11 @@
       <c r="B17" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="79">
+      <c r="C17" s="72">
         <f>7.99+8.49</f>
         <v>16.48</v>
       </c>
-      <c r="D17" s="81"/>
+      <c r="D17" s="74"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
@@ -3309,10 +3326,10 @@
       <c r="B18" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="79">
+      <c r="C18" s="72">
         <v>1.69</v>
       </c>
-      <c r="D18" s="81"/>
+      <c r="D18" s="74"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
@@ -3321,10 +3338,10 @@
       <c r="B19" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="79">
+      <c r="C19" s="72">
         <v>1.79</v>
       </c>
-      <c r="D19" s="81"/>
+      <c r="D19" s="74"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
@@ -3333,10 +3350,10 @@
       <c r="B20" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="72">
         <v>1.78</v>
       </c>
-      <c r="D20" s="81"/>
+      <c r="D20" s="74"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
@@ -3345,10 +3362,10 @@
       <c r="B21" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="79">
+      <c r="C21" s="72">
         <v>4.99</v>
       </c>
-      <c r="D21" s="81">
+      <c r="D21" s="74">
         <f>SUM(C1:C21)</f>
         <v>693.35000000000014</v>
       </c>
@@ -3360,10 +3377,10 @@
       <c r="B22" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="82">
+      <c r="C22" s="75">
         <v>9.9600000000000009</v>
       </c>
-      <c r="D22" s="81"/>
+      <c r="D22" s="74"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
@@ -3372,10 +3389,10 @@
       <c r="B23" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="82">
+      <c r="C23" s="75">
         <v>6.24</v>
       </c>
-      <c r="D23" s="81"/>
+      <c r="D23" s="74"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
@@ -3384,10 +3401,10 @@
       <c r="B24" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="82">
+      <c r="C24" s="75">
         <v>16.440000000000001</v>
       </c>
-      <c r="D24" s="81"/>
+      <c r="D24" s="74"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
@@ -3396,10 +3413,10 @@
       <c r="B25" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="82">
+      <c r="C25" s="75">
         <v>16.440000000000001</v>
       </c>
-      <c r="D25" s="81"/>
+      <c r="D25" s="74"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
@@ -3408,10 +3425,10 @@
       <c r="B26" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="82">
+      <c r="C26" s="75">
         <v>13.3</v>
       </c>
-      <c r="D26" s="81"/>
+      <c r="D26" s="74"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="61" t="s">
@@ -3420,10 +3437,10 @@
       <c r="B27" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="82">
+      <c r="C27" s="75">
         <v>17.899999999999999</v>
       </c>
-      <c r="D27" s="81"/>
+      <c r="D27" s="74"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
@@ -3432,117 +3449,141 @@
       <c r="B28" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="82">
+      <c r="C28" s="75">
         <v>75</v>
       </c>
-      <c r="D28" s="81">
+      <c r="D28" s="74">
         <f>SUM(C22:C28)</f>
         <v>155.28</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="83" t="s">
+      <c r="A29" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="84">
+      <c r="C29" s="77">
         <v>17.3</v>
       </c>
-      <c r="D29" s="81"/>
+      <c r="D29" s="74"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="83" t="s">
+      <c r="A30" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="84">
+      <c r="C30" s="77">
         <v>53.22</v>
       </c>
-      <c r="D30" s="81"/>
+      <c r="D30" s="74"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="83" t="s">
+      <c r="A31" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="84">
+      <c r="C31" s="77">
         <v>28.83</v>
       </c>
-      <c r="D31" s="81"/>
+      <c r="D31" s="74"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="83" t="s">
+      <c r="A32" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="84">
+      <c r="C32" s="77">
         <v>99.15</v>
       </c>
-      <c r="D32" s="81"/>
+      <c r="D32" s="74"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="83" t="s">
+      <c r="A33" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="84">
+      <c r="C33" s="77">
         <v>15</v>
       </c>
-      <c r="D33" s="81"/>
+      <c r="D33" s="74"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="83" t="s">
+      <c r="A34" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="84">
+      <c r="C34" s="77">
         <v>33.979999999999997</v>
       </c>
-      <c r="D34" s="81"/>
+      <c r="D34" s="74"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="83" t="s">
+      <c r="A35" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="84">
+      <c r="C35" s="77">
         <v>39.96</v>
       </c>
-      <c r="D35" s="81"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="83" t="s">
+      <c r="D35" s="74"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="84">
+      <c r="C36" s="77">
         <v>7.5</v>
       </c>
-      <c r="D36" s="81">
-        <f>SUM(C29:C36)</f>
-        <v>294.94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D37" s="85">
-        <f>SUM(D1:D36)</f>
-        <v>1143.5700000000002</v>
+      <c r="D36" s="74"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="77">
+        <v>56.62</v>
+      </c>
+      <c r="D37" s="74"/>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="77">
+        <v>25</v>
+      </c>
+      <c r="D38" s="87">
+        <f>SUM(C29:C38)</f>
+        <v>376.56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D39" s="78">
+        <f>SUM(D1:D38)</f>
+        <v>1225.19</v>
       </c>
     </row>
   </sheetData>
